--- a/app/reports9.xlsx
+++ b/app/reports9.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,12 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>13_07_21</t>
+          <t>14_07_21</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>24_07_21</t>
         </is>
       </c>
     </row>
